--- a/biology/Botanique/Voyria/Voyria.xlsx
+++ b/biology/Botanique/Voyria/Voyria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyria est un genre de plantes herbacées mycohétérotrophes sud-américaines et africaines, appartenant à la famille des Gentianaceae, dont l'espèce type est Voyria caerulea Aubl., et comptant entre 25 et 50 espèces.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voyria est un genre d'herbacées saprophytes/parasites[3] à tiges terreuses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voyria est un genre d'herbacées saprophytes/parasites à tiges terreuses.
 Les feuilles non-chlorophyllienne, sont petites réduites à des écailles, dépourvues de pétioles, à limbe non amplexicaules.
 Les inflorescences sont terminales, solitaires ou en cyme bipare, avec un nombre de fleurs plus ou moins important (dichasium).
 Les fleurs sont actinomorphes, de symétrie (4)5(6), à calice tubulaire, à corolle en plateau, généralement marcescente, et avec l'ovaire parfois doté de glandes.
 Le fruit est une capsules indéhiscente ou à déhiscence septicide.
-Les graines sont subglobuleuses ou filiformes[4],[5],[6].
+Les graines sont subglobuleuses ou filiformes.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'esception de Voyria primuloides présent en Afrique (Sierra Leone, Liberia, Côte d'Ivoire, Cameroun, Guinée équatoriale, Gabon, république du Congo), toutes les espèces sont néotropicales, diversement réparties du sud de la Floride au Brésil en passant par les Caraïbes et l'Amérique centrale.
 </t>
@@ -578,9 +594,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[7] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « VOYRIA. (Tabula 83. Fig. 1.)
 CAL. Perianthium monophyllum, turbinatum, quinquedentatum, ad baſim ſquamulis tribus munitum. 
 COR. monopetala, hypocrateriformis ; tubus longus, baſi &amp; apice ventricoſus, diſco piſtilli inſertus, limbus quinquefidus, patens. 
